--- a/backtest/doublesort paper styled.xlsx
+++ b/backtest/doublesort paper styled.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="0" windowWidth="27240" windowHeight="14840"/>
+    <workbookView xWindow="12480" yWindow="0" windowWidth="27240" windowHeight="14840"/>
   </bookViews>
   <sheets>
     <sheet name="doublesort" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Turnover</t>
   </si>
@@ -30,23 +30,57 @@
     <t>High</t>
   </si>
   <si>
-    <t>Momentum (last month's return)</t>
-  </si>
-  <si>
     <t>High-Low</t>
   </si>
   <si>
-    <t>Long-Short PF</t>
+    <t>Last month's return</t>
+  </si>
+  <si>
+    <t>Long-Short</t>
+  </si>
+  <si>
+    <t>t-statistic</t>
+  </si>
+  <si>
+    <t>Short-term Reversal</t>
+  </si>
+  <si>
+    <t>Short-term Momentum</t>
+  </si>
+  <si>
+    <t>50:50 Combo</t>
+  </si>
+  <si>
+    <t>Fama-French market 1963 - 2016</t>
+  </si>
+  <si>
+    <r>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>FF6</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00&quot;%&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00&quot;%&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;(&quot;0.00&quot;)&quot;;&quot;(-&quot;0.00&quot;)&quot;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +227,22 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,8 +422,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -491,11 +545,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -504,35 +565,17 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -540,71 +583,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -653,58 +637,91 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="18" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="19" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1028,491 +1045,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="7.26953125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.36328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="1.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="0.90625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="0.90625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="1"/>
+    <col min="19" max="19" width="0.90625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="32.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+    </row>
+    <row r="2" spans="1:20" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
         <v>3</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="N1" s="14" t="s">
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
         <v>5</v>
       </c>
+      <c r="H2" s="4">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4">
+        <v>8</v>
+      </c>
+      <c r="K2" s="4">
+        <v>9</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C2" s="14" t="s">
+    <row r="3" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
-        <v>2</v>
-      </c>
-      <c r="E2" s="14">
-        <v>3</v>
-      </c>
-      <c r="F2" s="14">
-        <v>4</v>
-      </c>
-      <c r="G2" s="14">
-        <v>5</v>
-      </c>
-      <c r="H2" s="14">
-        <v>6</v>
-      </c>
-      <c r="I2" s="14">
-        <v>7</v>
-      </c>
-      <c r="J2" s="14">
-        <v>8</v>
-      </c>
-      <c r="K2" s="14">
-        <v>9</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C3" s="28">
         <v>0.89</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="28">
         <v>1.07</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="28">
         <v>0.67</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="28">
         <v>0.52</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="28">
         <v>0.44</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="28">
         <v>0.52</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="28">
         <v>0.37</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="28">
         <v>0.44</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="28">
         <v>-0.08</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="28">
         <v>-0.53</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="11">
+      <c r="M3" s="2"/>
+      <c r="N3" s="10">
         <f t="shared" ref="N3:N11" si="0">L3-C3</f>
         <v>-1.42</v>
       </c>
+      <c r="P3" s="17">
+        <v>-6.22</v>
+      </c>
+      <c r="R3" s="18">
+        <v>-1.46E-2</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14">
+    <row r="4" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="27"/>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="28">
         <v>1.06</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="28">
         <v>0.98</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="28">
         <v>0.71</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="28">
         <v>0.53</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="28">
         <v>0.79</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="28">
         <v>0.64</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="28">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="28">
         <v>0.11</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="28">
         <v>-0.04</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="12">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2">
         <f t="shared" si="0"/>
         <v>-1.1000000000000001</v>
       </c>
+      <c r="P4" s="15">
+        <v>-4.3099999999999996</v>
+      </c>
+      <c r="R4" s="16">
+        <v>-1.24E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14">
+    <row r="5" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27"/>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="28">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="28">
         <v>1.23</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="28">
         <v>0.6</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="28">
         <v>0.73</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="28">
         <v>0.5</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="28">
         <v>0.44</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="28">
         <v>0.25</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="28">
         <v>0.15</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="28">
         <v>-0.04</v>
       </c>
-      <c r="M5" s="5"/>
-      <c r="N5" s="12">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
         <f t="shared" si="0"/>
         <v>-1.17</v>
       </c>
+      <c r="P5" s="15">
+        <v>-4.45</v>
+      </c>
+      <c r="R5" s="16">
+        <v>-1.29E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14">
+    <row r="6" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27"/>
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="28">
         <v>1.07</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="28">
         <v>1.05</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="28">
         <v>0.96</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="28">
         <v>0.63</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="28">
         <v>0.69</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="28">
         <v>0.4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="28">
         <v>0.41</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="28">
         <v>0.22</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="28">
         <v>0.15</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="12">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2">
         <f t="shared" si="0"/>
         <v>-0.92</v>
       </c>
+      <c r="P6" s="15">
+        <v>-4.16</v>
+      </c>
+      <c r="R6" s="16">
+        <v>-1.15E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14">
+    <row r="7" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27"/>
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="28">
         <v>0.99</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="28">
         <v>0.82</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="28">
         <v>0.91</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="28">
         <v>0.84</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="28">
         <v>0.66</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="28">
         <v>0.73</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="28">
         <v>0.31</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="28">
         <v>0.59</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="28">
         <v>0.39</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="28">
         <v>0.3</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="12">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2">
         <f t="shared" si="0"/>
         <v>-0.69</v>
       </c>
+      <c r="P7" s="15">
+        <v>-2.86</v>
+      </c>
+      <c r="R7" s="16">
+        <v>-8.2000000000000007E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14">
+    <row r="8" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27"/>
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="28">
         <v>0.65</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="28">
         <v>0.93</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="28">
         <v>0.97</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="28">
         <v>0.71</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="28">
         <v>0.68</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="28">
         <v>0.51</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="28">
         <v>0.72</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="28">
         <v>0.75</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="28">
         <v>0.5</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="28">
         <v>0.27</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="12">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2">
         <f t="shared" si="0"/>
         <v>-0.38</v>
       </c>
+      <c r="P8" s="15">
+        <v>-1.4</v>
+      </c>
+      <c r="R8" s="16">
+        <v>-3.8999999999999998E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14">
+    <row r="9" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="28">
         <v>0.83</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="28">
         <v>0.74</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="28">
         <v>0.76</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="28">
         <v>0.79</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="28">
         <v>0.63</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="28">
         <v>0.77</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="28">
         <v>0.64</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="28">
         <v>0.6</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="28">
         <v>0.31</v>
       </c>
-      <c r="M9" s="5"/>
-      <c r="N9" s="12">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2">
         <f t="shared" si="0"/>
         <v>-0.52</v>
       </c>
+      <c r="P9" s="15">
+        <v>-1.82</v>
+      </c>
+      <c r="R9" s="16">
+        <v>-6.7999999999999996E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="14">
+    <row r="10" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="28">
         <v>0.81</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="28">
         <v>0.88</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="28">
         <v>0.83</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="28">
         <v>0.88</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="28">
         <v>0.63</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="28">
         <v>0.65</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="28">
         <v>0.67</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="28">
         <v>0.53</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="28">
         <v>0.63</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="12">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2">
         <f t="shared" si="0"/>
         <v>-0.18000000000000005</v>
       </c>
+      <c r="P10" s="15">
+        <v>-0.62</v>
+      </c>
+      <c r="R10" s="16">
+        <v>-2.7000000000000001E-3</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14">
+    <row r="11" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="28">
         <v>0.42</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="28">
         <v>0.98</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="28">
         <v>0.87</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="28">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="28">
         <v>1.01</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="28">
         <v>0.73</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="28">
         <v>0.81</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="28">
         <v>0.65</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="28">
         <v>0.71</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="28">
         <v>0.48</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="12">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
+      <c r="P11" s="15">
+        <v>0.23</v>
+      </c>
+      <c r="R11" s="16">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:20" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="28">
         <v>-0.43</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="28">
         <v>0.77</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="28">
         <v>0.66</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="28">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="28">
         <v>0.49</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="28">
         <v>0.66</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="28">
         <v>0.77</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="28">
         <v>0.53</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="28">
         <v>0.88</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="13">
+      <c r="M12" s="2"/>
+      <c r="N12" s="10">
         <f>L12-C12</f>
         <v>1.31</v>
       </c>
+      <c r="P12" s="17">
+        <v>4.07</v>
+      </c>
+      <c r="R12" s="18">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+    <row r="13" spans="1:20" ht="3.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N14" s="22">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="O14" s="14"/>
+      <c r="P14" s="23">
+        <v>6.82</v>
+      </c>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="14"/>
+      <c r="T14" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="19">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A12"/>
+    <mergeCell ref="N1:T1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:M12">
     <cfRule type="colorScale" priority="2">
@@ -1526,31 +1676,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N12">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N12">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:N12">
+  <conditionalFormatting sqref="C3:M12">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -1560,18 +1686,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N12">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
